--- a/002/W M Pereira Junior et al_Cronograma_20220821.xlsx
+++ b/002/W M Pereira Junior et al_Cronograma_20220821.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\002 - Ensino\002.003 - Disciplinas Gerencial\002.004.007 - Metodologia científica\ECC005\002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E69AE2-94AE-44FC-A2F3-E1A0E20931F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B794816E-61F3-4D68-BEEF-A202A5290E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40800" yWindow="1620" windowWidth="28800" windowHeight="11385" xr2:uid="{2C026927-8E5A-4463-A555-DE814689FAC4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C026927-8E5A-4463-A555-DE814689FAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -43,14 +43,38 @@
     <t>Mês</t>
   </si>
   <si>
-    <t>X</t>
+    <t>Mapeamento sistemático dos bancos de dados relacionados a reconhecimento de padrões;</t>
+  </si>
+  <si>
+    <t>Estudo dos modelos de Aprendizado de Máquina para classificação;</t>
+  </si>
+  <si>
+    <t>Levantamento dos métodos específicos para a detecção, classificação e avaliação de defeitos na infraestrutura civil;</t>
+  </si>
+  <si>
+    <t>Redação da teoria empregada das técnicas de IA;</t>
+  </si>
+  <si>
+    <t>Tratamento do banco de dados das imagens, limpeza e estudo estatístico das imagens;</t>
+  </si>
+  <si>
+    <t>Criação do algoritmo para detecção de defeito em vias asfalticas empregando a biblioteca scikit-learn;</t>
+  </si>
+  <si>
+    <t>Elaboração das rotinas de testes com os algoritmos classificadores;</t>
+  </si>
+  <si>
+    <t>Testes e análise dos resultados;</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,31 +89,32 @@
       <name val="Josefin Sans"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="Josefin Sans"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Josefin Sans"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Josefin Sans"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -138,11 +163,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -150,23 +190,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,81 +523,85 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="13" width="4.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>8</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>9</v>
       </c>
-      <c r="K2" s="2">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
         <v>11</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -571,24 +609,22 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4"/>
+    <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -596,20 +632,24 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4"/>
+    <row r="5" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -617,97 +657,123 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5"/>
+    <row r="6" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
+    <row r="7" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
+    <row r="8" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="6"/>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
+    <row r="9" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
+    <row r="10" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -715,17 +781,21 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>2</v>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
